--- a/data/procesados/teddy.xlsx
+++ b/data/procesados/teddy.xlsx
@@ -1,12 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -25,12 +26,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <family val="2"/>
       <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -50,19 +46,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -75,7 +62,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -440,7 +427,7 @@
   </sheetPr>
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -483,7 +470,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1331</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="3">
@@ -501,7 +488,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1391</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="4">
@@ -519,7 +506,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1839</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="5">
@@ -537,7 +524,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1875</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="6">
@@ -555,7 +542,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1258</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="7">
@@ -573,7 +560,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1306</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="8">
@@ -699,7 +686,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>998</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="15">
@@ -717,7 +704,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>998</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="16">
@@ -735,7 +722,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2722</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -753,7 +740,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -771,7 +758,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -789,7 +776,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>689</v>
+        <v>847</v>
       </c>
     </row>
     <row r="20">
@@ -807,7 +794,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>556</v>
+        <v>665</v>
       </c>
     </row>
     <row r="21">
@@ -843,7 +830,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>919</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="23">
@@ -861,7 +848,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1208</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="24">
@@ -879,7 +866,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1208</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="25">
@@ -897,7 +884,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>695</v>
+        <v>840</v>
       </c>
     </row>
     <row r="26">
@@ -915,7 +902,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>816</v>
+        <v>986</v>
       </c>
     </row>
     <row r="27">
@@ -933,7 +920,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>701</v>
+        <v>859</v>
       </c>
     </row>
     <row r="28">
@@ -951,7 +938,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1191</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="29">
@@ -969,7 +956,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1706</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="30">
@@ -987,7 +974,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>895</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="31">
@@ -1005,7 +992,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>816</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1023,7 +1010,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1246</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="33">
@@ -1041,7 +1028,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1185</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="34">
@@ -1059,7 +1046,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1210</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="35">
@@ -1077,7 +1064,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>889</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="36">
@@ -1095,7 +1082,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>865</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="37">
@@ -1113,7 +1100,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1476</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="38">
@@ -1131,7 +1118,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>955</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="39">
@@ -1149,7 +1136,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1355</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="40">
@@ -1167,7 +1154,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1010</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="41">
@@ -1185,7 +1172,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>871</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="42">
@@ -1203,7 +1190,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1046</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="43">
@@ -1257,7 +1244,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1137</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="46">
@@ -1275,7 +1262,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1137</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="47">
@@ -1293,7 +1280,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>968</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="48">
@@ -1311,7 +1298,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1899</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="49">
@@ -1347,7 +1334,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>3206</v>
+        <v>4235</v>
       </c>
     </row>
     <row r="51">
@@ -1365,7 +1352,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1694</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="52">
@@ -1383,7 +1370,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>762</v>
+        <v>955</v>
       </c>
     </row>
     <row r="53">
@@ -1401,7 +1388,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>877</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="54">
@@ -1419,7 +1406,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>949</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="55">
@@ -1437,7 +1424,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>980</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="56">
@@ -1455,7 +1442,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>1264</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="57">
@@ -1473,7 +1460,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1089</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="58">
@@ -1491,7 +1478,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>955</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="59">
@@ -1509,7 +1496,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>6485</v>
+        <v>7852</v>
       </c>
     </row>
     <row r="60">
@@ -1527,7 +1514,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>7623</v>
+        <v>9232</v>
       </c>
     </row>
     <row r="61">
@@ -1545,7 +1532,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>8107</v>
+        <v>9801</v>
       </c>
     </row>
     <row r="62">
@@ -1563,7 +1550,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1391</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -1581,7 +1568,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1329</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="64">
@@ -1617,7 +1604,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1222</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="66">
@@ -1635,7 +1622,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>1282</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="67">
@@ -1653,7 +1640,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1270</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="68">
@@ -1707,7 +1694,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>3496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -1725,7 +1712,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>913</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="72">
@@ -1743,7 +1730,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>913</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="73">
@@ -1761,7 +1748,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>2226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -1779,7 +1766,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>2528</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -1797,7 +1784,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>2226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -1815,7 +1802,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>1064</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="77">
@@ -1833,7 +1820,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>623</v>
+        <v>750</v>
       </c>
     </row>
     <row r="78">
@@ -1869,7 +1856,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>1512</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="80">
@@ -1887,7 +1874,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>865</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="81">
@@ -1905,7 +1892,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>871</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="82">
@@ -1923,7 +1910,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>871</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="83">
@@ -1959,7 +1946,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>968</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="85">
@@ -1977,7 +1964,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>562</v>
+        <v>701</v>
       </c>
     </row>
     <row r="86">
@@ -2013,7 +2000,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1851</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="88">
@@ -2031,7 +2018,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>2153</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="89">
@@ -2049,7 +2036,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>1573</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="90">
@@ -2067,7 +2054,7 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>943</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="91">
@@ -2085,7 +2072,7 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>1113</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="92">
@@ -2103,7 +2090,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>1137</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="93">
@@ -2121,7 +2108,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2541</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="94">
@@ -2139,7 +2126,7 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>1089</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="95">
@@ -2157,7 +2144,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>677</v>
+        <v>816</v>
       </c>
     </row>
     <row r="96">
@@ -2175,7 +2162,7 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>786</v>
+        <v>943</v>
       </c>
     </row>
     <row r="97">
@@ -2193,7 +2180,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>943</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="98">
@@ -2211,7 +2198,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>1500</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="99">
@@ -2229,7 +2216,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>3751</v>
+        <v>4719</v>
       </c>
     </row>
     <row r="100">
@@ -2247,7 +2234,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>877</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -2265,7 +2252,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>1119</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="102">
@@ -2283,10 +2270,10 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>1240</v>
+        <v>1573</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>